--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1555148.454682501</v>
+        <v>1515185.171743307</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914458</v>
+        <v>426806.9758914462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478711</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8284330.118149677</v>
+        <v>8284330.118149678</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,16 +673,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>167.0383293154539</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>61.25142126258082</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1150,13 +1150,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.375688713773212</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>216.8878230093883</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>89.33806125447302</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>43.76331341951682</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>187.4835994426808</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>126.9144401356237</v>
       </c>
       <c r="F14" t="n">
-        <v>245.8407024161635</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>34.3807559479629</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>159.3388108552989</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.80575808072057</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>115.1779363007902</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>210.0628465622727</v>
       </c>
       <c r="E17" t="n">
-        <v>16.41846874702937</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>95.87483792926864</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1982,10 +1982,10 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
-        <v>220.5709423533581</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>74.15307578127786</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>47.3603165399562</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>157.6932630703611</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
@@ -2140,7 +2140,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>118.4080809160364</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>159.3388108552989</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>20.07438641789229</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>108.3027291048315</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>170.0991949343318</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>148.4031503829016</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.90029553604458</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>132.2037233045428</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>273.4079508052938</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -2614,16 +2614,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>222.2621159560654</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>85.67482303850645</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8957288909827</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>196.199174725674</v>
       </c>
     </row>
     <row r="28">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>126.636009282424</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>126.7984012085845</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>218.7580189634924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>257.9125533028345</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>41.16551806305293</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2949,31 +2949,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>123.6039762133034</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.95236170054482</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>181.8351224948159</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9829592038967</v>
       </c>
     </row>
     <row r="33">
@@ -3110,10 +3110,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>79.82222373250251</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>111.6321872928792</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.79258128802688</v>
+        <v>124.4544989107807</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>111.9713808894054</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>90.07674526836445</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>71.10034144793623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>148.2421731387154</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>75.1098697362999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>74.05354577132783</v>
       </c>
       <c r="G38" t="n">
         <v>414.005789270132</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>131.9203722953791</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>162.7589759020266</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>147.0534765912973</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>133.0824215829084</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3839,7 +3839,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8957288909827</v>
+        <v>159.3388108552989</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>47.47529300550314</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>27.03392382424047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>166.0576056442634</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4067,13 +4067,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.18293713757069</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>132.203723304543</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>582.7883107557723</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C3" t="n">
-        <v>582.7883107557723</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>582.7883107557723</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>423.5508557503168</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
         <v>234.810827406191</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>582.7883107557723</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y3" t="n">
-        <v>582.7883107557723</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="7">
@@ -4749,25 +4749,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
         <v>41.77557929797318</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4892,43 +4892,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>399.5118995681682</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>191.6603993626354</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1324.613881121158</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="C11" t="n">
-        <v>955.651364180746</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="D11" t="n">
-        <v>597.3856655739955</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="E11" t="n">
-        <v>597.3856655739955</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F11" t="n">
-        <v>597.3856655739955</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V11" t="n">
-        <v>2440.987626628164</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.218971358049</v>
+        <v>1730.979069969361</v>
       </c>
       <c r="X11" t="n">
-        <v>1714.753213096969</v>
+        <v>1730.979069969361</v>
       </c>
       <c r="Y11" t="n">
-        <v>1324.613881121158</v>
+        <v>1730.979069969361</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F12" t="n">
-        <v>93.02511962298431</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G12" t="n">
         <v>48.81975253256327</v>
@@ -5120,16 +5120,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N12" t="n">
         <v>1557.865593173221</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D13" t="n">
         <v>48.81975253256327</v>
@@ -5232,19 +5232,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X13" t="n">
-        <v>451.2607965063331</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y13" t="n">
-        <v>230.468217362803</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.877436081915</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="C14" t="n">
-        <v>1206.914919141503</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.914919141503</v>
+        <v>1006.189727428995</v>
       </c>
       <c r="E14" t="n">
-        <v>1206.914919141503</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F14" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2259.7089786956</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2259.7089786956</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V14" t="n">
-        <v>1928.646091352029</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W14" t="n">
-        <v>1575.877436081915</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="X14" t="n">
-        <v>1575.877436081915</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1575.877436081915</v>
+        <v>1364.455426035745</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>957.3366797756757</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>782.8836504945488</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>633.9492408332975</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>474.711785827842</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>328.177227854727</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>190.1473403038886</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>83.54778884363691</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5387,22 +5387,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2061.991705784318</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1541.163815766231</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1333.312315560698</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>1125.552016795744</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>602.8128707069468</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="C16" t="n">
-        <v>602.8128707069468</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="D16" t="n">
-        <v>602.8128707069468</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="E16" t="n">
-        <v>602.8128707069468</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="F16" t="n">
-        <v>568.6656403223806</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5457,31 +5457,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>602.8128707069468</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W16" t="n">
-        <v>602.8128707069468</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X16" t="n">
-        <v>602.8128707069468</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y16" t="n">
-        <v>602.8128707069468</v>
+        <v>165.1611023313413</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1386.161193962289</v>
+        <v>646.7926986280527</v>
       </c>
       <c r="C17" t="n">
-        <v>1386.161193962289</v>
+        <v>646.7926986280527</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.161193962289</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E17" t="n">
-        <v>1369.576882096602</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F17" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
         <v>412.307967997759</v>
@@ -5527,7 +5527,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5554,13 +5554,13 @@
         <v>1386.161193962289</v>
       </c>
       <c r="W17" t="n">
-        <v>1386.161193962289</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X17" t="n">
-        <v>1386.161193962289</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y17" t="n">
-        <v>1386.161193962289</v>
+        <v>1033.392538692174</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,10 +5597,10 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>318.2287647883253</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L18" t="n">
-        <v>697.3559079137186</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M18" t="n">
         <v>1191.758623309281</v>
@@ -5630,16 +5630,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1572.602240824373</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>337.9988400551709</v>
+        <v>592.7994661050449</v>
       </c>
       <c r="U19" t="n">
-        <v>48.81975253256327</v>
+        <v>592.7994661050449</v>
       </c>
       <c r="V19" t="n">
-        <v>48.81975253256327</v>
+        <v>592.7994661050449</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256327</v>
+        <v>592.7994661050449</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1068.651952631476</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C20" t="n">
-        <v>699.6894356910645</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D20" t="n">
-        <v>540.4033113775685</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E20" t="n">
-        <v>540.4033113775685</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F20" t="n">
-        <v>540.4033113775685</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G20" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5758,7 +5758,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U20" t="n">
-        <v>1786.314680039169</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V20" t="n">
-        <v>1455.251792695598</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="W20" t="n">
-        <v>1455.251792695598</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="X20" t="n">
-        <v>1455.251792695598</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="Y20" t="n">
-        <v>1455.251792695598</v>
+        <v>1207.480627192637</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,13 +5834,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5855,28 +5855,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T21" t="n">
-        <v>2222.939999577549</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.991705784318</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.839597552575</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.602240824373</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>238.1971257069881</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5940,22 +5940,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U22" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V22" t="n">
-        <v>640.638169680758</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="W22" t="n">
-        <v>640.638169680758</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="X22" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>419.8455905372278</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>997.0904856892771</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="C23" t="n">
-        <v>997.0904856892771</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="D23" t="n">
-        <v>638.8247870825267</v>
+        <v>1027.895495355538</v>
       </c>
       <c r="E23" t="n">
-        <v>638.8247870825267</v>
+        <v>1027.895495355538</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>616.9095905659306</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>198.7219246365043</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5989,7 +5989,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V23" t="n">
-        <v>2109.924739284593</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W23" t="n">
-        <v>1757.156084014479</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="X23" t="n">
-        <v>1383.690325753399</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="Y23" t="n">
-        <v>1383.690325753399</v>
+        <v>1386.161193962289</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
         <v>48.81975253256327</v>
@@ -6068,7 +6068,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K24" t="n">
         <v>318.2287647883253</v>
@@ -6092,28 +6092,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>367.8725748728059</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="C25" t="n">
-        <v>198.936391944899</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G25" t="n">
         <v>48.81975253256327</v>
@@ -6180,19 +6180,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V25" t="n">
-        <v>385.9536814748711</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W25" t="n">
-        <v>385.9536814748711</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X25" t="n">
-        <v>385.9536814748711</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.9536814748711</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="C26" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="D26" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>735.9753046002454</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>324.9893998106378</v>
       </c>
       <c r="G26" t="n">
         <v>48.81975253256327</v>
@@ -6253,25 +6253,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V26" t="n">
-        <v>1386.161193962289</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.392538692174</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="X26" t="n">
-        <v>659.9267804310946</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="Y26" t="n">
-        <v>435.419592596685</v>
+        <v>1508.363397262611</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D27" t="n">
-        <v>461.1913169713854</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E27" t="n">
-        <v>301.9538619659299</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F27" t="n">
-        <v>155.4193039928149</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1817.260283359009</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1563.022926630807</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1355.171426425275</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="28">
@@ -6363,16 +6363,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="C28" t="n">
-        <v>640.638169680758</v>
+        <v>471.7019867528511</v>
       </c>
       <c r="D28" t="n">
-        <v>512.7230087894206</v>
+        <v>471.7019867528511</v>
       </c>
       <c r="E28" t="n">
-        <v>364.8099152070275</v>
+        <v>323.788893170458</v>
       </c>
       <c r="F28" t="n">
-        <v>217.9199677091171</v>
+        <v>176.8989456725476</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>48.81975253256327</v>
+        <v>997.0904856892776</v>
       </c>
       <c r="C29" t="n">
-        <v>48.81975253256327</v>
+        <v>736.5727550803538</v>
       </c>
       <c r="D29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6463,7 +6463,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K29" t="n">
         <v>412.307967997759</v>
@@ -6481,34 +6481,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>1386.161193962289</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W29" t="n">
-        <v>1033.392538692174</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X29" t="n">
-        <v>659.9267804310946</v>
+        <v>1383.690325753399</v>
       </c>
       <c r="Y29" t="n">
-        <v>269.7874484552829</v>
+        <v>1383.690325753399</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D30" t="n">
-        <v>547.7315422628061</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
@@ -6554,40 +6554,40 @@
         <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.6486187827406</v>
+        <v>515.785668455199</v>
       </c>
       <c r="C31" t="n">
-        <v>412.6486187827406</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D31" t="n">
-        <v>412.6486187827406</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
         <v>48.81975253256327</v>
@@ -6663,10 +6663,10 @@
         <v>640.638169680758</v>
       </c>
       <c r="X31" t="n">
-        <v>412.6486187827406</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y31" t="n">
-        <v>412.6486187827406</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>959.7198089835799</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="C32" t="n">
-        <v>590.7572920431683</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="D32" t="n">
-        <v>232.4915934364178</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="E32" t="n">
-        <v>48.81975253256327</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256327</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
         <v>412.307967997759</v>
@@ -6718,7 +6718,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
@@ -6733,19 +6733,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V32" t="n">
-        <v>2109.924739284593</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W32" t="n">
-        <v>2109.924739284593</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="X32" t="n">
-        <v>1736.458981023513</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="Y32" t="n">
-        <v>1346.319649047702</v>
+        <v>1812.477670817928</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C33" t="n">
-        <v>641.5560627232235</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D33" t="n">
         <v>492.6216530619722</v>
@@ -6779,52 +6779,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1849.169209479969</v>
+        <v>514.9265546193633</v>
       </c>
       <c r="C34" t="n">
-        <v>1849.169209479969</v>
+        <v>514.9265546193633</v>
       </c>
       <c r="D34" t="n">
-        <v>1849.169209479969</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="E34" t="n">
-        <v>1849.169209479969</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F34" t="n">
-        <v>1849.169209479969</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N34" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W34" t="n">
-        <v>2151.570456591203</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X34" t="n">
-        <v>2151.570456591203</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y34" t="n">
-        <v>1930.777877447673</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1482.679287035396</v>
+        <v>990.8644291665478</v>
       </c>
       <c r="C35" t="n">
-        <v>1482.679287035396</v>
+        <v>621.901912226136</v>
       </c>
       <c r="D35" t="n">
-        <v>1482.679287035396</v>
+        <v>621.901912226136</v>
       </c>
       <c r="E35" t="n">
-        <v>1369.576882096602</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F35" t="n">
-        <v>958.5909773069948</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G35" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H35" t="n">
         <v>210.9160074365284</v>
@@ -6937,13 +6937,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2440.987626628164</v>
+        <v>2280.910416512668</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2061.295811844354</v>
       </c>
       <c r="U35" t="n">
-        <v>2187.207932640046</v>
+        <v>2061.295811844354</v>
       </c>
       <c r="V35" t="n">
-        <v>1856.145045296475</v>
+        <v>1730.232924500784</v>
       </c>
       <c r="W35" t="n">
-        <v>1856.145045296475</v>
+        <v>1377.46426923067</v>
       </c>
       <c r="X35" t="n">
-        <v>1482.679287035396</v>
+        <v>1377.46426923067</v>
       </c>
       <c r="Y35" t="n">
-        <v>1482.679287035396</v>
+        <v>1377.46426923067</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7125,22 +7125,22 @@
         <v>487.9764913965091</v>
       </c>
       <c r="T37" t="n">
-        <v>487.9764913965091</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="U37" t="n">
-        <v>487.9764913965091</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V37" t="n">
-        <v>487.9764913965091</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W37" t="n">
-        <v>487.9764913965091</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y37" t="n">
-        <v>259.9869404984918</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1831.233689984038</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="C38" t="n">
-        <v>1831.233689984038</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="D38" t="n">
-        <v>1755.365134694847</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="E38" t="n">
-        <v>1369.576882096602</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="F38" t="n">
         <v>958.5909773069948</v>
@@ -7174,13 +7174,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U38" t="n">
-        <v>2221.37302195985</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V38" t="n">
-        <v>2221.37302195985</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W38" t="n">
-        <v>2221.37302195985</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X38" t="n">
-        <v>2221.37302195985</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y38" t="n">
-        <v>1831.233689984038</v>
+        <v>1033.392538692174</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
         <v>1557.865593173221</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.77459395226342</v>
+        <v>507.3852683722943</v>
       </c>
       <c r="C40" t="n">
-        <v>96.77459395226342</v>
+        <v>507.3852683722943</v>
       </c>
       <c r="D40" t="n">
-        <v>96.77459395226342</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="E40" t="n">
-        <v>96.77459395226342</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I40" t="n">
         <v>48.81975253256327</v>
@@ -7365,19 +7365,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U40" t="n">
-        <v>351.4590821581503</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V40" t="n">
-        <v>96.77459395226342</v>
+        <v>507.3852683722943</v>
       </c>
       <c r="W40" t="n">
-        <v>96.77459395226342</v>
+        <v>507.3852683722943</v>
       </c>
       <c r="X40" t="n">
-        <v>96.77459395226342</v>
+        <v>507.3852683722943</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.77459395226342</v>
+        <v>507.3852683722943</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1386.161193962289</v>
+        <v>2050.848294652352</v>
       </c>
       <c r="C41" t="n">
-        <v>1017.198677021877</v>
+        <v>1681.88577771194</v>
       </c>
       <c r="D41" t="n">
-        <v>1017.198677021877</v>
+        <v>1323.62007910519</v>
       </c>
       <c r="E41" t="n">
-        <v>631.4104244236325</v>
+        <v>937.8318265069454</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>526.8459217173379</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256327</v>
@@ -7423,7 +7423,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>1386.161193962289</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W41" t="n">
-        <v>1386.161193962289</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X41" t="n">
-        <v>1386.161193962289</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Y41" t="n">
-        <v>1386.161193962289</v>
+        <v>2050.848294652352</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>882.5823026510593</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
@@ -7496,13 +7496,13 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O42" t="n">
         <v>1970.07121469245</v>
@@ -7517,25 +7517,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2183.976407531844</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U42" t="n">
-        <v>1955.798903601558</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V42" t="n">
-        <v>1720.646795369816</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W42" t="n">
-        <v>1466.409438641614</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X42" t="n">
-        <v>1258.557938436081</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y42" t="n">
-        <v>1050.797639671127</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7578,43 +7578,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2209996437976</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="X43" t="n">
-        <v>123.2314487457803</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.2314487457803</v>
+        <v>96.77459395226342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.528532560618</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.566015620207</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>905.3003170134562</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>905.3003170134562</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>494.3144122238486</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>76.12674629442233</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7660,7 +7660,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2022.883424766065</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894854</v>
+        <v>2022.883424766065</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.897027894854</v>
+        <v>2022.883424766065</v>
       </c>
       <c r="W44" t="n">
-        <v>2019.12837262474</v>
+        <v>2022.883424766065</v>
       </c>
       <c r="X44" t="n">
-        <v>2019.12837262474</v>
+        <v>2022.883424766065</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.12837262474</v>
+        <v>1632.744092790253</v>
       </c>
     </row>
     <row r="45">
@@ -7715,10 +7715,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>93.02511962298431</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>101.5297900452609</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7730,13 +7730,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V46" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W46" t="n">
-        <v>351.2209996437976</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="X46" t="n">
-        <v>123.2314487457803</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>434.3429150104481</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>233.1030882730269</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.40241131725696</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>74.42821185443506</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K24" t="n">
-        <v>233.1030882730269</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K33" t="n">
-        <v>74.42821185443506</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185861</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>197.1179662607436</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>259.90290746294</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>92.88627525581317</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>135.525535025472</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23472,19 +23472,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>38.22605594635633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>255.0159299366381</v>
       </c>
       <c r="F14" t="n">
-        <v>161.035343325548</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>31.12404080756151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,13 +23627,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>38.02889906600382</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>111.6152899422107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.23127672399814</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23712,7 +23712,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>144.6201950584102</v>
       </c>
       <c r="E17" t="n">
-        <v>365.5119013252324</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>61.77024252613231</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>12.22964479606719</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>139.7249216952743</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>178.0995440080971</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>196.9897785503218</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>209.3441775540985</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.626077405407</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>66.55691803568379</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>147.1724346807355</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24180,22 +24180,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4069262842057</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>236.7768508073797</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>177.7892805187279</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.9316846458927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>13.21732471838843</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
@@ -24420,10 +24420,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>140.5978384648382</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>163.9758226999882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>61.77024252613231</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>9.48352105163039</v>
       </c>
     </row>
     <row r="28">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9794637357884</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>40.61081181620384</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163.9758226999882</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>107.360338468173</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>56.22800396863393</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4568513242435</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>200.0952475774458</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>15.25497945215693</v>
       </c>
     </row>
     <row r="33">
@@ -24998,10 +24998,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>92.88627525581323</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.03939889391042</v>
+        <v>55.37748127115655</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>269.9589891828564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>89.3891161848737</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>85.95439947468806</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25365,7 +25365,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>77.21768740933791</v>
       </c>
       <c r="U37" t="n">
         <v>286.2872966473816</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>279.573171884383</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>332.8224999703836</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>97.9457550174281</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>52.22830032617343</v>
@@ -25605,10 +25605,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>120.2172710284489</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>244.1170698396849</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>266.9523126788347</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>39.62607740540739</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>66.55691803568379</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.1644009308525</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>119.9339200192852</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25842,16 +25842,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>299.1585070773891</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>51.36085297736707</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>53.35061880807848</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26079,19 +26079,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>154.319275032048</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.91707410101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640428.6268961844</v>
+        <v>640428.6268961846</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>640428.6268961845</v>
+        <v>640428.6268961846</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640428.6268961846</v>
+        <v>640428.6268961845</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640428.6268961844</v>
+        <v>640428.6268961845</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>640428.6268961845</v>
+        <v>640428.6268961846</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>640428.6268961845</v>
+        <v>640428.6268961846</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>640428.6268961844</v>
+        <v>640428.6268961845</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>640428.6268961844</v>
+        <v>640428.6268961846</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>640428.6268961844</v>
+        <v>640428.6268961845</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>640428.6268961845</v>
+        <v>640428.6268961844</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>352485.1114947453</v>
+      </c>
+      <c r="F2" t="n">
+        <v>352485.1114947452</v>
+      </c>
+      <c r="G2" t="n">
         <v>352485.1114947454</v>
       </c>
-      <c r="F2" t="n">
-        <v>352485.1114947453</v>
-      </c>
-      <c r="G2" t="n">
-        <v>352485.1114947455</v>
-      </c>
       <c r="H2" t="n">
-        <v>352485.1114947453</v>
+        <v>352485.1114947452</v>
       </c>
       <c r="I2" t="n">
         <v>352485.1114947452</v>
       </c>
       <c r="J2" t="n">
+        <v>352485.1114947455</v>
+      </c>
+      <c r="K2" t="n">
         <v>352485.1114947452</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>352485.1114947453</v>
+      </c>
+      <c r="M2" t="n">
         <v>352485.1114947454</v>
       </c>
-      <c r="L2" t="n">
-        <v>352485.1114947452</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>352485.1114947453</v>
-      </c>
-      <c r="N2" t="n">
-        <v>352485.1114947452</v>
       </c>
       <c r="O2" t="n">
         <v>352485.1114947452</v>
       </c>
       <c r="P2" t="n">
-        <v>352485.1114947451</v>
+        <v>352485.1114947454</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="F4" t="n">
         <v>44379.07056643641</v>
@@ -26435,13 +26435,13 @@
         <v>44379.07056643641</v>
       </c>
       <c r="H4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="I4" t="n">
         <v>44379.07056643641</v>
       </c>
       <c r="J4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="K4" t="n">
         <v>44379.07056643641</v>
@@ -26450,10 +26450,10 @@
         <v>44379.07056643641</v>
       </c>
       <c r="M4" t="n">
+        <v>44379.07056643641</v>
+      </c>
+      <c r="N4" t="n">
         <v>44379.07056643642</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44379.07056643641</v>
       </c>
       <c r="O4" t="n">
         <v>44379.07056643642</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83663.49712611921</v>
+        <v>83663.49712611944</v>
       </c>
       <c r="C6" t="n">
         <v>164432.9286576668</v>
       </c>
       <c r="D6" t="n">
-        <v>164432.928657667</v>
+        <v>164432.9286576672</v>
       </c>
       <c r="E6" t="n">
-        <v>-105465.2962248096</v>
+        <v>-112434.220798542</v>
       </c>
       <c r="F6" t="n">
-        <v>263970.0029079705</v>
+        <v>257001.0783342381</v>
       </c>
       <c r="G6" t="n">
-        <v>263970.0029079707</v>
+        <v>257001.0783342383</v>
       </c>
       <c r="H6" t="n">
-        <v>263970.0029079705</v>
+        <v>257001.0783342382</v>
       </c>
       <c r="I6" t="n">
-        <v>263970.0029079705</v>
+        <v>257001.0783342382</v>
       </c>
       <c r="J6" t="n">
-        <v>200910.0603088642</v>
+        <v>193941.1357351321</v>
       </c>
       <c r="K6" t="n">
-        <v>263970.0029079706</v>
+        <v>257001.0783342382</v>
       </c>
       <c r="L6" t="n">
-        <v>263970.0029079705</v>
+        <v>257001.0783342383</v>
       </c>
       <c r="M6" t="n">
-        <v>171955.7576268774</v>
+        <v>164986.8330531452</v>
       </c>
       <c r="N6" t="n">
-        <v>263970.0029079704</v>
+        <v>257001.0783342382</v>
       </c>
       <c r="O6" t="n">
-        <v>263970.0029079705</v>
+        <v>257001.0783342382</v>
       </c>
       <c r="P6" t="n">
-        <v>263970.0029079703</v>
+        <v>257001.0783342383</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,16 +27393,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>5.670169672861817</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>83.81779113080306</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>175.1662893844119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>154.522208511831</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27712,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27821,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891957</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -27870,13 +27870,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>202.3070070635312</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="11">
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,10 +34231,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R42" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L43" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35500,7 +35500,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35734,7 +35734,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>468.0345334781882</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K18" t="n">
-        <v>207.3158823613949</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64100594280298</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36211,7 +36211,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K24" t="n">
-        <v>207.3158823613949</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
@@ -36922,7 +36922,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>48.64100594280298</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
@@ -37633,7 +37633,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>309.3596570595963</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077443</v>
       </c>
       <c r="P42" t="n">
         <v>316.9982669508155</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P44" t="n">
-        <v>277.0684912329588</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
         <v>130.0651205780292</v>
@@ -38098,7 +38098,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
